--- a/totals/Food.Annual.xlsx
+++ b/totals/Food.Annual.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Site</t>
   </si>
@@ -23,13 +23,25 @@
     <t xml:space="preserve">annual.mean.d13C</t>
   </si>
   <si>
+    <t xml:space="preserve">annual.sd.d13C</t>
+  </si>
+  <si>
     <t xml:space="preserve">annual.mean.d15N</t>
   </si>
   <si>
+    <t xml:space="preserve">annual.sd.d15N</t>
+  </si>
+  <si>
     <t xml:space="preserve">annual.mean.wt.C</t>
   </si>
   <si>
+    <t xml:space="preserve">annual.sd.wt.C</t>
+  </si>
+  <si>
     <t xml:space="preserve">annual.mean.wt.N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annual.sd.wt.N</t>
   </si>
   <si>
     <t xml:space="preserve">EAS</t>
@@ -398,185 +410,305 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>-29.6158333333333</v>
       </c>
       <c r="D2" t="n">
+        <v>0.602305545132177</v>
+      </c>
+      <c r="E2" t="n">
         <v>-1.7475</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>0.72726292607032</v>
+      </c>
+      <c r="G2" t="n">
         <v>41.4675</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>6.49646074972575</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.955</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.227176343198606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>-29.4483333333333</v>
       </c>
       <c r="D3" t="n">
+        <v>0.952153858206209</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0883333333333333</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.457301041354863</v>
+      </c>
+      <c r="G3" t="n">
         <v>36.5125</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>8.58431246254151</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.21166666666667</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.275807354814365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>-29.91</v>
       </c>
       <c r="D4" t="n">
+        <v>0.885468545717207</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.480416666666667</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.810091067645353</v>
+      </c>
+      <c r="G4" t="n">
         <v>36.6895833333333</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>7.85441001150232</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.00958333333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.131468252879361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>-28.0054166666667</v>
+        <v>-28.0186363636364</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06458333333333</v>
+        <v>0.185931316742109</v>
       </c>
       <c r="E5" t="n">
-        <v>5.06125</v>
+        <v>1.015</v>
       </c>
       <c r="F5" t="n">
-        <v>0.72875</v>
+        <v>0.512528048012984</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.21818181818182</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.97123219424713</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.395973483960732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>-26.6170833333333</v>
+        <v>-26.5909090909091</v>
       </c>
       <c r="D6" t="n">
-        <v>1.27666666666667</v>
+        <v>0.725747263797178</v>
       </c>
       <c r="E6" t="n">
-        <v>5.92083333333333</v>
+        <v>1.29363636363636</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5925</v>
+        <v>0.517557199298256</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.81545454545455</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.41809282937587</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.547272727272727</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.281357100819969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>-26.8383333333333</v>
       </c>
       <c r="D7" t="n">
+        <v>0.816387088817479</v>
+      </c>
+      <c r="E7" t="n">
         <v>2.75083333333333</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.331428268211535</v>
+      </c>
+      <c r="G7" t="n">
         <v>5.3175</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>2.01803741293367</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.975</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.07740006919014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>-27.7654166666667</v>
+        <v>-27.7372727272727</v>
       </c>
       <c r="D8" t="n">
-        <v>1.05166666666667</v>
+        <v>2.10375422000333</v>
       </c>
       <c r="E8" t="n">
-        <v>2.9525</v>
+        <v>1.10818181818182</v>
       </c>
       <c r="F8" t="n">
-        <v>0.41875</v>
+        <v>1.00255491801515</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.34636363636364</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.19339587273831</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.457272727272727</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.228958114470351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>-27.4695833333333</v>
+        <v>-27.737</v>
       </c>
       <c r="D9" t="n">
-        <v>1.62666666666667</v>
+        <v>3.21134118745147</v>
       </c>
       <c r="E9" t="n">
-        <v>3.17375</v>
+        <v>1.706</v>
       </c>
       <c r="F9" t="n">
-        <v>0.454583333333333</v>
+        <v>0.784335529108699</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.262</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.5155595798947</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.280245923748728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>-21.6779166666667</v>
+        <v>-21.465</v>
       </c>
       <c r="D10" t="n">
-        <v>3.60708333333333</v>
+        <v>1.88990860769894</v>
       </c>
       <c r="E10" t="n">
-        <v>3.16583333333333</v>
+        <v>3.68583333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>0.422916666666667</v>
+        <v>1.44980536833763</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.1225</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.22930941202549</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.424166666666667</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.156580408233036</v>
       </c>
     </row>
   </sheetData>
